--- a/save/eis_sumer_ion_width_merg_v2.xlsx
+++ b/save/eis_sumer_ion_width_merg_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74E59DA-4A8F-B944-9620-DCFE7FAEB6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96EF3A6-69CE-0046-A6C7-0A1068558955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="960" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,6 +975,12 @@
       <c r="F17" t="s">
         <v>26</v>
       </c>
+      <c r="G17">
+        <v>49.3</v>
+      </c>
+      <c r="H17">
+        <v>1.6</v>
+      </c>
       <c r="I17" t="s">
         <v>11</v>
       </c>
@@ -998,6 +1004,12 @@
       <c r="F18" t="s">
         <v>26</v>
       </c>
+      <c r="G18">
+        <v>56.9</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
       <c r="I18" t="s">
         <v>11</v>
       </c>
@@ -1021,6 +1033,12 @@
       <c r="F19" t="s">
         <v>26</v>
       </c>
+      <c r="G19">
+        <v>45.9</v>
+      </c>
+      <c r="H19">
+        <v>3.2</v>
+      </c>
       <c r="I19" t="s">
         <v>11</v>
       </c>
@@ -1044,6 +1062,12 @@
       <c r="F20" t="s">
         <v>26</v>
       </c>
+      <c r="G20">
+        <v>50.3</v>
+      </c>
+      <c r="H20">
+        <v>7.5</v>
+      </c>
       <c r="I20" t="s">
         <v>11</v>
       </c>
@@ -1067,6 +1091,12 @@
       <c r="F21" t="s">
         <v>26</v>
       </c>
+      <c r="G21">
+        <v>52.7</v>
+      </c>
+      <c r="H21">
+        <v>2.1</v>
+      </c>
       <c r="I21" t="s">
         <v>11</v>
       </c>
@@ -1093,6 +1123,12 @@
       <c r="F22" t="s">
         <v>26</v>
       </c>
+      <c r="G22">
+        <v>45.5</v>
+      </c>
+      <c r="H22">
+        <v>6.5</v>
+      </c>
       <c r="I22" t="s">
         <v>11</v>
       </c>
@@ -1116,6 +1152,12 @@
       <c r="F23" t="s">
         <v>26</v>
       </c>
+      <c r="G23">
+        <v>61.4</v>
+      </c>
+      <c r="H23">
+        <v>1.7</v>
+      </c>
       <c r="I23" t="s">
         <v>11</v>
       </c>
@@ -1139,6 +1181,12 @@
       <c r="F24" t="s">
         <v>26</v>
       </c>
+      <c r="G24">
+        <v>49.8</v>
+      </c>
+      <c r="H24">
+        <v>3.6</v>
+      </c>
       <c r="I24" t="s">
         <v>11</v>
       </c>
@@ -1162,6 +1210,12 @@
       <c r="F25" t="s">
         <v>26</v>
       </c>
+      <c r="G25">
+        <v>50.1</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
       <c r="I25" t="s">
         <v>11</v>
       </c>
@@ -1185,6 +1239,12 @@
       <c r="F26" t="s">
         <v>26</v>
       </c>
+      <c r="G26">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="H26">
+        <v>13.9</v>
+      </c>
       <c r="I26" t="s">
         <v>11</v>
       </c>
@@ -1208,6 +1268,12 @@
       <c r="F27" t="s">
         <v>26</v>
       </c>
+      <c r="G27">
+        <v>54.2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
       <c r="I27" t="s">
         <v>11</v>
       </c>
@@ -1231,6 +1297,12 @@
       <c r="F28" t="s">
         <v>26</v>
       </c>
+      <c r="G28">
+        <v>50.8</v>
+      </c>
+      <c r="H28">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="I28" t="s">
         <v>11</v>
       </c>
@@ -1254,6 +1326,12 @@
       <c r="F29" t="s">
         <v>26</v>
       </c>
+      <c r="G29">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H29">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="I29" t="s">
         <v>11</v>
       </c>
@@ -1277,6 +1355,12 @@
       <c r="F30" t="s">
         <v>26</v>
       </c>
+      <c r="G30">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H30">
+        <v>7.5</v>
+      </c>
       <c r="I30" t="s">
         <v>11</v>
       </c>
@@ -1300,6 +1384,12 @@
       <c r="F31" t="s">
         <v>26</v>
       </c>
+      <c r="G31">
+        <v>39.4</v>
+      </c>
+      <c r="H31">
+        <v>36.5</v>
+      </c>
       <c r="I31" t="s">
         <v>11</v>
       </c>
@@ -1322,6 +1412,12 @@
       </c>
       <c r="F32" t="s">
         <v>26</v>
+      </c>
+      <c r="G32">
+        <v>41.8</v>
+      </c>
+      <c r="H32">
+        <v>6.4</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>

--- a/save/eis_sumer_ion_width_merg_v2.xlsx
+++ b/save/eis_sumer_ion_width_merg_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96EF3A6-69CE-0046-A6C7-0A1068558955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B309C4B4-4361-614B-AB57-81880C4B9517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="960" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,10 +932,10 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>54.938000000000002</v>
@@ -947,10 +947,10 @@
         <v>8</v>
       </c>
       <c r="G16">
-        <v>28.8</v>
+        <v>43.4</v>
       </c>
       <c r="H16">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I16" t="s">
         <v>9</v>

--- a/save/eis_sumer_ion_width_merg_v2.xlsx
+++ b/save/eis_sumer_ion_width_merg_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B309C4B4-4361-614B-AB57-81880C4B9517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9F8DD7-A22A-3140-BA45-097B4FB6DDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="960" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
   </bookViews>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBF4585-E0CB-704A-A75C-59A594F7DB44}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>18.899999999999999</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -570,10 +570,10 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>32.200000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="H3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -599,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>34.4</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="H4">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -631,7 +631,7 @@
         <v>36.9</v>
       </c>
       <c r="H5">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -657,10 +657,10 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="H6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -686,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="H7">
         <v>1.9</v>
@@ -718,7 +718,7 @@
         <v>38.799999999999997</v>
       </c>
       <c r="H8">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>41.2</v>
       </c>
       <c r="H9">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>36.4</v>
       </c>
       <c r="H10">
-        <v>10.8</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>9</v>
@@ -805,7 +805,7 @@
         <v>38.5</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -860,10 +860,10 @@
         <v>8</v>
       </c>
       <c r="G13">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>23.9</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
         <v>9</v>
@@ -889,10 +889,10 @@
         <v>8</v>
       </c>
       <c r="G14">
-        <v>36.700000000000003</v>
+        <v>36.9</v>
       </c>
       <c r="H14">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -918,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="G15">
-        <v>37.299999999999997</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="H15">
         <v>5.9</v>
@@ -950,7 +950,7 @@
         <v>43.4</v>
       </c>
       <c r="H16">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
         <v>9</v>
@@ -976,7 +976,7 @@
         <v>26</v>
       </c>
       <c r="G17">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="H17">
         <v>1.6</v>
@@ -1005,7 +1005,7 @@
         <v>26</v>
       </c>
       <c r="G18">
-        <v>56.9</v>
+        <v>57</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -1034,10 +1034,10 @@
         <v>26</v>
       </c>
       <c r="G19">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="H19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1066,7 +1066,7 @@
         <v>50.3</v>
       </c>
       <c r="H20">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1095,7 +1095,7 @@
         <v>52.7</v>
       </c>
       <c r="H21">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -1156,7 +1156,7 @@
         <v>61.4</v>
       </c>
       <c r="H23">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1185,7 +1185,7 @@
         <v>49.8</v>
       </c>
       <c r="H24">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1240,10 +1240,10 @@
         <v>26</v>
       </c>
       <c r="G26">
-        <v>69.400000000000006</v>
+        <v>69</v>
       </c>
       <c r="H26">
-        <v>13.9</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1301,7 +1301,7 @@
         <v>50.8</v>
       </c>
       <c r="H28">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1330,7 +1330,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="H29">
-        <v>4.5999999999999996</v>
+        <v>5.9</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1385,10 +1385,10 @@
         <v>26</v>
       </c>
       <c r="G31">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1417,7 +1417,7 @@
         <v>41.8</v>
       </c>
       <c r="H32">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>

--- a/save/eis_sumer_ion_width_merg_v2.xlsx
+++ b/save/eis_sumer_ion_width_merg_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9F8DD7-A22A-3140-BA45-097B4FB6DDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9EE5E2-6342-9A4E-A79B-91147D00517F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="960" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
   <si>
     <t>ion</t>
   </si>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBF4585-E0CB-704A-A75C-59A594F7DB44}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,28 +526,28 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>7</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>55.85</v>
       </c>
       <c r="E2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>32.1</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>1.9</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -555,10 +555,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>55.85</v>
@@ -570,10 +570,10 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>32.1</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="H3">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -584,25 +584,25 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>55.85</v>
       </c>
       <c r="E4">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4">
-        <v>32.299999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="H4">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -613,25 +613,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>55.85</v>
       </c>
       <c r="E5">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
       <c r="G5">
-        <v>36.9</v>
+        <v>37.5</v>
       </c>
       <c r="H5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -642,25 +642,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>55.85</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6">
-        <v>37.5</v>
+        <v>40.6</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -671,10 +671,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>55.85</v>
@@ -686,10 +686,10 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <v>40.6</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="H7">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -697,28 +697,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
       <c r="D8">
-        <v>55.85</v>
+        <v>15.9994</v>
       </c>
       <c r="E8">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8">
-        <v>38.799999999999997</v>
+        <v>41.2</v>
       </c>
       <c r="H8">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -735,22 +735,22 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>15.9994</v>
+        <v>24.305</v>
       </c>
       <c r="E9">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9">
-        <v>41.2</v>
+        <v>36.4</v>
       </c>
       <c r="H9">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -758,33 +758,33 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>24.305</v>
       </c>
       <c r="E10">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="G10">
-        <v>36.4</v>
+        <v>38.5</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>24.305</v>
+        <v>28.0855</v>
       </c>
       <c r="E11">
         <v>5.8</v>
@@ -802,10 +802,10 @@
         <v>8</v>
       </c>
       <c r="G11">
-        <v>38.5</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="H11">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -816,28 +816,28 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>28.0855</v>
       </c>
       <c r="E12">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
       <c r="G12">
-        <v>39.200000000000003</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -845,33 +845,33 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>28.0855</v>
       </c>
       <c r="E13">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>36.9</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -880,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>28.0855</v>
+        <v>32.06</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -889,10 +889,10 @@
         <v>8</v>
       </c>
       <c r="G14">
-        <v>36.9</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="H14">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -900,36 +900,36 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>54.938000000000002</v>
+      </c>
+      <c r="E15">
+        <v>5.9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>43.4</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
         <v>9</v>
-      </c>
-      <c r="D15">
-        <v>32.06</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="H15">
-        <v>5.9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -938,22 +938,22 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>54.938000000000002</v>
+        <v>24.305</v>
       </c>
       <c r="E16">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G16">
-        <v>43.4</v>
+        <v>49.5</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="I16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -961,25 +961,25 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>24.305</v>
       </c>
       <c r="E17">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
       <c r="G17">
-        <v>49.5</v>
+        <v>57</v>
       </c>
       <c r="H17">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -990,25 +990,25 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>24.305</v>
       </c>
       <c r="E18">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
       <c r="G18">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -1016,28 +1016,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>24.305</v>
+        <v>55.85</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
       <c r="G19">
-        <v>46</v>
+        <v>50.3</v>
       </c>
       <c r="H19">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1048,28 +1048,31 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>55.85</v>
       </c>
       <c r="E20">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
       <c r="G20">
-        <v>50.3</v>
+        <v>52.7</v>
       </c>
       <c r="H20">
-        <v>7.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1077,57 +1080,54 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>55.85</v>
       </c>
       <c r="E21">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
       <c r="G21">
-        <v>52.7</v>
+        <v>45.5</v>
       </c>
       <c r="H21">
-        <v>2.2000000000000002</v>
+        <v>6.5</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>55.85</v>
+        <v>22.98977</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
       </c>
       <c r="G22">
-        <v>45.5</v>
+        <v>61.4</v>
       </c>
       <c r="H22">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1135,28 +1135,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>22.98977</v>
+        <v>39.948</v>
       </c>
       <c r="E23">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
       <c r="G23">
-        <v>61.4</v>
+        <v>49.8</v>
       </c>
       <c r="H23">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1164,28 +1164,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>39.948</v>
+        <v>15.9994</v>
       </c>
       <c r="E24">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="F24" t="s">
         <v>26</v>
       </c>
       <c r="G24">
-        <v>49.8</v>
+        <v>50.1</v>
       </c>
       <c r="H24">
-        <v>5.4</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1193,28 +1193,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>15.9994</v>
+        <v>32.06</v>
       </c>
       <c r="E25">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
       </c>
       <c r="G25">
-        <v>50.1</v>
+        <v>69</v>
       </c>
       <c r="H25">
-        <v>0.2</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -1222,28 +1222,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>32.06</v>
+        <v>20.178999999999998</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
       </c>
       <c r="G26">
-        <v>69</v>
+        <v>54.2</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1251,16 +1251,16 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>20.178999999999998</v>
+        <v>28.0855</v>
       </c>
       <c r="E27">
         <v>5.8</v>
@@ -1269,10 +1269,10 @@
         <v>26</v>
       </c>
       <c r="G27">
-        <v>54.2</v>
+        <v>50.8</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1283,25 +1283,25 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>28.0855</v>
       </c>
       <c r="E28">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F28" t="s">
         <v>26</v>
       </c>
       <c r="G28">
-        <v>50.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="H28">
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1312,25 +1312,25 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>28.0855</v>
       </c>
       <c r="E29">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
       </c>
       <c r="G29">
-        <v>36.799999999999997</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H29">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1338,28 +1338,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>28.0855</v>
+        <v>26.981539999999999</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="F30" t="s">
         <v>26</v>
       </c>
       <c r="G30">
-        <v>32.200000000000003</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>7.5</v>
+        <v>37</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1370,56 +1370,27 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>26.981539999999999</v>
       </c>
       <c r="E31">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F31" t="s">
         <v>26</v>
       </c>
       <c r="G31">
-        <v>39</v>
+        <v>41.8</v>
       </c>
       <c r="H31">
-        <v>37</v>
+        <v>7.3</v>
       </c>
       <c r="I31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>26.981539999999999</v>
-      </c>
-      <c r="E32">
-        <v>5.8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32">
-        <v>41.8</v>
-      </c>
-      <c r="H32">
-        <v>7.3</v>
-      </c>
-      <c r="I32" t="s">
         <v>11</v>
       </c>
     </row>

--- a/save/eis_sumer_ion_width_merg_v2.xlsx
+++ b/save/eis_sumer_ion_width_merg_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9EE5E2-6342-9A4E-A79B-91147D00517F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3AA5A-29B7-AC4B-B6ED-7315CD1C1663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="960" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="G5">
-        <v>37.5</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="H5">
         <v>0.5</v>

--- a/save/eis_sumer_ion_width_merg_v2.xlsx
+++ b/save/eis_sumer_ion_width_merg_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3AA5A-29B7-AC4B-B6ED-7315CD1C1663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0FB7D0-1763-324A-9DD3-7DF4D73F97F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="960" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>32.1</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H2">
         <v>1.9</v>
@@ -570,10 +570,10 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>32.299999999999997</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -599,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>36.9</v>
+        <v>37.5</v>
       </c>
       <c r="H4">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -715,10 +715,10 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <v>41.2</v>
+        <v>40.6</v>
       </c>
       <c r="H8">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <v>36.4</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="H9">
         <v>13</v>
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <v>38.5</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H10">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -831,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="G12">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="H12">
         <v>21</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="G13">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>2.8</v>
@@ -950,7 +950,7 @@
         <v>49.5</v>
       </c>
       <c r="H16">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -976,10 +976,10 @@
         <v>26</v>
       </c>
       <c r="G17">
-        <v>57</v>
+        <v>56.8</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -1008,7 +1008,7 @@
         <v>46</v>
       </c>
       <c r="H18">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -1034,10 +1034,10 @@
         <v>26</v>
       </c>
       <c r="G19">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="H19">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1066,7 +1066,7 @@
         <v>52.7</v>
       </c>
       <c r="H20">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1095,7 +1095,7 @@
         <v>26</v>
       </c>
       <c r="G21">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="H21">
         <v>6.5</v>
@@ -1153,10 +1153,10 @@
         <v>26</v>
       </c>
       <c r="G23">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="H23">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1182,10 +1182,10 @@
         <v>26</v>
       </c>
       <c r="G24">
-        <v>50.1</v>
+        <v>50.6</v>
       </c>
       <c r="H24">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1385,10 +1385,10 @@
         <v>26</v>
       </c>
       <c r="G31">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="H31">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
